--- a/Seminar/Bang_cham_bo_test.xlsx
+++ b/Seminar/Bang_cham_bo_test.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\havan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD2D094D-CBE6-493F-8984-8E6CA6AA8A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157E303F-8936-4870-AEB6-C0E8223876DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AAA29C11-59FB-436D-A37A-3B2FF4FF59A9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Bang_cham" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$J$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bang_cham!$A$3:$J$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,9 +71,6 @@
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>BẢNG CHẤM BỘ TEST LỚP KHTN2021 (CS112.N21.KHTN)</t>
-  </si>
-  <si>
     <t>Không thấy bộ test hay trình sinh test</t>
   </si>
   <si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>Bộ test bài 2 lỗi input từ test41</t>
+  </si>
+  <si>
+    <t>BẢNG CHẤM BỘ TEST LỚP CS112.N21.KHTN</t>
   </si>
 </sst>
 </file>
@@ -173,10 +173,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -479,7 +475,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,7 +492,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -577,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -607,7 +603,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -763,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -855,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
